--- a/files/reflexion.xlsx
+++ b/files/reflexion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Mur</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>de</t>
+  </si>
+  <si>
+    <t>SI murGauche&amp;&amp;murDevant&amp;&amp;murDroite=1 ||murDevant &amp;&amp; murDroite=1 alors return ActionGauche</t>
+  </si>
+  <si>
+    <t>SI murGauche&amp;&amp;murDevant&amp;&amp;murDroite=0 ||murDevant &amp;&amp; murDroite=0 alors return ActionGauche</t>
   </si>
 </sst>
 </file>
@@ -196,20 +202,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,48 +531,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F12"/>
+  <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6" t="str">
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="str">
         <f t="shared" ref="E5:E12" si="0">IF(F5="ga","Gauche",IF(F5="dr","Droite",IF(F5="de","Devant","")))</f>
         <v>Devant</v>
       </c>
@@ -573,17 +580,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="str">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Gauche</v>
       </c>
@@ -591,17 +598,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6" t="str">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Devant</v>
       </c>
@@ -609,17 +616,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6" t="str">
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Devant</v>
       </c>
@@ -627,17 +634,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6" t="str">
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Droite</v>
       </c>
@@ -645,17 +652,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6" t="str">
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Gauche</v>
       </c>
@@ -663,17 +670,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6" t="str">
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Droite</v>
       </c>
@@ -681,17 +688,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6" t="str">
+    <row r="12" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Gauche</v>
       </c>
@@ -699,9 +706,79 @@
         <v>5</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
     <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/files/reflexion.xlsx
+++ b/files/reflexion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Mur</t>
   </si>
@@ -50,10 +50,16 @@
     <t>de</t>
   </si>
   <si>
-    <t>SI murGauche&amp;&amp;murDevant&amp;&amp;murDroite=1 ||murDevant &amp;&amp; murDroite=1 alors return ActionGauche</t>
-  </si>
-  <si>
-    <t>SI murGauche&amp;&amp;murDevant&amp;&amp;murDroite=0 ||murDevant &amp;&amp; murDroite=0 alors return ActionGauche</t>
+    <t>SI murDevant &amp;&amp; murDroite=1 alors return ActionGauche</t>
+  </si>
+  <si>
+    <t>SI murGauche&amp;&amp;murDevant&amp;&amp;murDroite=1 return ACTIONALEATOIRE</t>
+  </si>
+  <si>
+    <t>SI murDevant &amp;&amp; murDroite=0 alors return ActionGauche</t>
+  </si>
+  <si>
+    <t>SI murGauche&amp;&amp;murDevant&amp;&amp;murDroite=0 RETURN action aleatoire</t>
   </si>
 </sst>
 </file>
@@ -202,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -210,13 +216,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,19 +540,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -707,68 +714,72 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="A17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/files/reflexion.xlsx
+++ b/files/reflexion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Mur</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>SI murGauche&amp;&amp;murDevant&amp;&amp;murDroite=0 RETURN action aleatoire</t>
+  </si>
+  <si>
+    <t>si l'on arrive sur un état déjà visité alors on retourne à l'éta précédant et o change de direction</t>
+  </si>
+  <si>
+    <t>si l'on observe dans la direction de l'état précedant on change la direction d'observation (donc il faut mémoriser les perceptions et les états visités)</t>
   </si>
 </sst>
 </file>
@@ -208,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -216,6 +222,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,7 +230,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,21 +547,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H18"/>
+  <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:H17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="116.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -714,72 +727,79 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
